--- a/api/Notice/University_API.xlsx
+++ b/api/Notice/University_API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3E39EE-13C0-4C33-9F52-E2591891F22A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9FF14-0C6C-4C9B-B087-FD83C5F0B3D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학교 공지 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -491,113 +491,6 @@
         <family val="2"/>
       </rPr>
       <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "campus": "COMMON",
-      "notice_id" : 1
-   },
-   "pagination" : {
-      "total_pages" : 10,
-      "total_elements" : 100,
-      "current_page" : 3,
-      "current_elements" : 10
-   }
-}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1276,6 +1169,142 @@
   </si>
   <si>
     <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : [{
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "campus": "COMMON",
+      "notice_id" : 1
+   }],
+   "pagination" : {
+      "total_pages" : 10,
+      "total_elements" : 100,
+      "current_page" : 3,
+      "current_elements" : 10
+   }
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,16 +1614,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1613,6 +1632,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1621,6 +1641,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2010,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:H33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2026,95 +2058,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2163,64 +2195,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2301,20 +2333,20 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="A20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2556,11 +2588,11 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2571,32 +2603,32 @@
         <v>21</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="A35" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
@@ -3170,6 +3202,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
@@ -3178,12 +3216,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3214,95 +3246,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3361,64 +3393,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3754,11 +3786,11 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3769,32 +3801,32 @@
         <v>21</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="A35" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
@@ -4368,6 +4400,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
@@ -4376,12 +4414,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4412,95 +4444,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4816,11 +4848,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -4831,70 +4863,70 @@
         <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8" ht="205" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" ht="205" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -5230,11 +5262,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -5245,32 +5277,32 @@
         <v>21</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="A49" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5594,6 +5626,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A25:H25"/>
@@ -5601,13 +5640,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5622,7 +5654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:H49"/>
     </sheetView>
   </sheetViews>
@@ -5638,95 +5670,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6061,66 +6093,66 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -6456,11 +6488,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -6471,32 +6503,32 @@
         <v>21</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="A49" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -6865,95 +6897,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7002,64 +7034,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="A11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7102,7 +7134,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -7120,7 +7152,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -7138,32 +7170,32 @@
         <v>32</v>
       </c>
       <c r="H18" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7286,24 +7318,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7907,13 +7939,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7923,6 +7948,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/University_API.xlsx
+++ b/api/Notice/University_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9FF14-0C6C-4C9B-B087-FD83C5F0B3D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7831ED-AB63-4C9D-892D-DFEF5D23773B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -1561,7 +1561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,6 +1617,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1632,7 +1648,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,18 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2042,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2058,95 +2061,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2195,64 +2198,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2587,78 +2590,68 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" ht="367.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
@@ -3202,20 +3195,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3230,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3246,95 +3239,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3393,64 +3386,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3785,78 +3778,68 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+    <row r="35" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" ht="339" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
@@ -4400,20 +4383,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4428,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4444,95 +4427,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4867,66 +4850,66 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="205" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -5261,48 +5244,68 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="4" t="s">
+      <c r="G48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="23" t="s">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:8" ht="360.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5626,6 +5629,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5633,13 +5643,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5647,6 +5650,7 @@
     <hyperlink ref="A26" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5654,8 +5658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:H49"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5670,95 +5674,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6093,66 +6097,66 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -6487,50 +6491,69 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="4" t="s">
+      <c r="G48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="23" t="s">
+    <row r="49" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+    </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
@@ -6853,7 +6876,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -6861,7 +6884,7 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
@@ -6897,95 +6920,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7034,64 +7057,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7174,28 +7197,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7318,24 +7341,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7939,6 +7962,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7948,13 +7978,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/University_API.xlsx
+++ b/api/Notice/University_API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7831ED-AB63-4C9D-892D-DFEF5D23773B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15D1DD-25B0-4F79-8DFC-80563EB8C613}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="109">
   <si>
     <t>Title</t>
   </si>
@@ -1307,12 +1307,248 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,6 +1651,22 @@
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1561,7 +1813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,16 +1872,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1648,6 +1891,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1656,6 +1900,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1728,6 +1984,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2045,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2061,95 +2323,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2198,64 +2460,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2629,79 +2891,115 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="64"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8" ht="367.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" ht="403" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="11"/>
@@ -3195,20 +3493,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3239,95 +3537,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3386,64 +3684,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3818,28 +4116,28 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="1:8" ht="339" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
@@ -4383,6 +4681,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="B7:H7"/>
@@ -4391,12 +4695,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4427,95 +4725,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4850,66 +5148,66 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" ht="205" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -5284,28 +5582,28 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8" ht="360.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5629,6 +5927,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A50:H50"/>
     <mergeCell ref="A25:H25"/>
@@ -5636,13 +5941,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5674,95 +5972,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6097,66 +6395,66 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -6531,28 +6829,28 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -6920,95 +7218,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7057,64 +7355,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7197,28 +7495,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7341,24 +7639,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7962,13 +8260,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7978,6 +8269,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/University_API.xlsx
+++ b/api/Notice/University_API.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15D1DD-25B0-4F79-8DFC-80563EB8C613}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A31FC-9AA2-4016-B4D5-8B00B7FBBB4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학교 공지 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="학교 공지 상세 조회" sheetId="2" r:id="rId2"/>
-    <sheet name="학교 공지 작성" sheetId="3" r:id="rId3"/>
-    <sheet name="학교 공지 수정" sheetId="4" r:id="rId4"/>
-    <sheet name="학교 공지 삭제" sheetId="5" r:id="rId5"/>
+    <sheet name="학교 공지 검색(제목)" sheetId="6" r:id="rId2"/>
+    <sheet name="학교 공지 검색(제목+내용)" sheetId="7" r:id="rId3"/>
+    <sheet name="학교 공지 검색(작성자)" sheetId="8" r:id="rId4"/>
+    <sheet name="학교 공지 상세 조회" sheetId="2" r:id="rId5"/>
+    <sheet name="학교 공지 작성" sheetId="3" r:id="rId6"/>
+    <sheet name="학교 공지 수정" sheetId="4" r:id="rId7"/>
+    <sheet name="학교 공지 삭제" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="118">
   <si>
     <t>Title</t>
   </si>
@@ -1543,12 +1546,328 @@
     <t>default 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>University (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/university/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/university/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>University (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/university/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/university/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>University (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/university/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/university/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1667,6 +1986,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1813,7 +2145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1876,6 +2208,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1891,7 +2252,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1900,18 +2260,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1984,12 +2332,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2307,11 +2649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -2319,101 +2661,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +2781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2449,7 +2791,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2459,67 +2801,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="35" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2563,7 +2905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2939,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>96</v>
       </c>
@@ -2615,7 +2957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -2635,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2655,7 +2997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
@@ -2675,7 +3017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -2695,7 +3037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
@@ -2715,7 +3057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
@@ -2735,7 +3077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>55</v>
       </c>
@@ -2755,7 +3097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -2775,7 +3117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -2793,7 +3135,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
@@ -2811,7 +3153,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -2831,7 +3173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -2851,7 +3193,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="23" t="s">
         <v>90</v>
       </c>
@@ -2871,7 +3213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -2891,7 +3233,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>99</v>
       </c>
@@ -2903,12 +3245,12 @@
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
       <c r="A36" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="30" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="24"/>
@@ -2919,14 +3261,14 @@
       <c r="G36" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="64"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B37" s="24"/>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="31" t="s">
         <v>103</v>
       </c>
       <c r="D37" s="24"/>
@@ -2937,14 +3279,14 @@
       <c r="G37" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="31" t="s">
         <v>105</v>
       </c>
       <c r="D38" s="24"/>
@@ -2955,14 +3297,14 @@
       <c r="G38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="64"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B39" s="24"/>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D39" s="24"/>
@@ -2973,35 +3315,35 @@
       <c r="G39" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" ht="403" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="29" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" ht="403" customHeight="1">
+      <c r="A41" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3011,7 +3353,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3021,7 +3363,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3031,7 +3373,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3041,7 +3383,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3051,7 +3393,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3061,7 +3403,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3071,7 +3413,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3081,7 +3423,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3091,7 +3433,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3101,7 +3443,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3111,7 +3453,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3121,7 +3463,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3131,7 +3473,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -3141,7 +3483,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -3151,7 +3493,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -3161,7 +3503,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3171,7 +3513,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3181,7 +3523,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3191,7 +3533,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3201,7 +3543,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3211,7 +3553,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3221,7 +3563,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3231,7 +3573,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3241,7 +3583,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3251,7 +3593,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3261,7 +3603,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3271,7 +3613,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3281,7 +3623,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3291,7 +3633,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3301,7 +3643,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3311,7 +3653,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3321,7 +3663,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3331,7 +3673,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3341,7 +3683,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3351,7 +3693,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3361,7 +3703,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3371,7 +3713,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3381,7 +3723,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3391,7 +3733,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3401,7 +3743,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3411,7 +3753,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3421,7 +3763,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3431,7 +3773,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3441,7 +3783,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3451,7 +3793,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3461,7 +3803,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3471,7 +3813,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3481,7 +3823,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3493,12 +3835,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
@@ -3507,6 +3843,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3518,6 +3860,3648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB280D8-022A-45A9-B6C5-304002F0A147}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" ht="403" customHeight="1">
+      <c r="A41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1C12BA16-DCAE-46C6-8C2D-0DF33259638F}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{0DB1408E-1FCD-410E-BD85-F1E0BC78BA47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C93941D-A0D7-4397-AE9F-2DF7EE2D4289}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" ht="403" customHeight="1">
+      <c r="A41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{31324470-FAFA-4A2D-822A-D11F5676E3BA}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{3623B8EB-C5A6-4643-BDA5-6289DAB58F0D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D506AA-E615-440F-8F2B-B6DB318E3BDA}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" ht="403" customHeight="1">
+      <c r="A41" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{16315DDE-60DD-4E25-AED1-E0A27AD76CA8}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{13C24BCE-E305-4877-9022-2A6E73D097CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -3525,7 +7509,7 @@
       <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -3533,101 +7517,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3653,7 +7637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3673,7 +7657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3683,67 +7667,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="35" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -3769,7 +7753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -3787,7 +7771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3805,7 +7789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3821,7 +7805,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3839,7 +7823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
@@ -3859,7 +7843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -3879,7 +7863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>46</v>
       </c>
@@ -3899,7 +7883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -3919,7 +7903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
@@ -3939,7 +7923,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
@@ -3959,7 +7943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>55</v>
       </c>
@@ -3979,7 +7963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +7983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>61</v>
       </c>
@@ -4017,7 +8001,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
@@ -4035,7 +8019,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -4055,7 +8039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -4075,7 +8059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="23" t="s">
         <v>90</v>
       </c>
@@ -4095,7 +8079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -4115,31 +8099,31 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A35" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" ht="339" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="29" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" ht="339" customHeight="1">
+      <c r="A36" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4149,7 +8133,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4159,7 +8143,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4169,7 +8153,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4179,7 +8163,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4189,7 +8173,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4199,7 +8183,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4209,7 +8193,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4219,7 +8203,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4229,7 +8213,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4239,7 +8223,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -4249,7 +8233,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4259,7 +8243,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4269,7 +8253,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4279,7 +8263,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4289,7 +8273,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4299,7 +8283,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4309,7 +8293,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4319,7 +8303,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -4329,7 +8313,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -4339,7 +8323,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -4349,7 +8333,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4359,7 +8343,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4369,7 +8353,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4379,7 +8363,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4389,7 +8373,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4399,7 +8383,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4409,7 +8393,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4419,7 +8403,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4429,7 +8413,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4439,7 +8423,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4449,7 +8433,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4459,7 +8443,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4469,7 +8453,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4479,7 +8463,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4489,7 +8473,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4499,7 +8483,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4509,7 +8493,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4519,7 +8503,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4529,7 +8513,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4539,7 +8523,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4549,7 +8533,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4559,7 +8543,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4569,7 +8553,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4579,7 +8563,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4589,7 +8573,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4599,7 +8583,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4609,7 +8593,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4619,7 +8603,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4629,7 +8613,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4639,7 +8623,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4649,7 +8633,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4659,7 +8643,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4669,7 +8653,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4681,12 +8665,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="B7:H7"/>
@@ -4695,6 +8673,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4705,15 +8689,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -4721,101 +8705,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4841,7 +8825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -4859,7 +8843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4877,7 +8861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4893,7 +8877,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -4911,7 +8895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
@@ -4931,7 +8915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -4951,7 +8935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -4971,7 +8955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -4991,7 +8975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
@@ -5011,7 +8995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
@@ -5031,7 +9015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
@@ -5051,7 +9035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
@@ -5069,7 +9053,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>63</v>
       </c>
@@ -5087,7 +9071,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -5107,7 +9091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -5127,7 +9111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -5147,69 +9131,69 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="46" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="205" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="49" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="205" customHeight="1">
+      <c r="A27" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -5235,7 +9219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -5253,7 +9237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -5271,7 +9255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -5287,7 +9271,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -5305,7 +9289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -5325,7 +9309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -5345,7 +9329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -5365,7 +9349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>48</v>
       </c>
@@ -5385,7 +9369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
@@ -5405,7 +9389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>53</v>
       </c>
@@ -5425,7 +9409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
@@ -5445,7 +9429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -5465,7 +9449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -5483,7 +9467,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>63</v>
       </c>
@@ -5501,7 +9485,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
@@ -5521,7 +9505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -5541,7 +9525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="23" t="s">
         <v>90</v>
       </c>
@@ -5561,7 +9545,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
@@ -5581,31 +9565,31 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:8" ht="16" customHeight="1">
+      <c r="A49" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" ht="360.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="29" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8" ht="360.5" customHeight="1">
+      <c r="A50" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5615,7 +9599,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5625,7 +9609,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5635,7 +9619,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5645,7 +9629,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5655,7 +9639,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5665,7 +9649,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5675,7 +9659,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5685,7 +9669,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5695,7 +9679,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5705,7 +9689,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5715,7 +9699,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5725,7 +9709,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5735,7 +9719,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5745,7 +9729,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5755,7 +9739,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5765,7 +9749,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5775,7 +9759,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5785,7 +9769,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5795,7 +9779,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5805,7 +9789,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5815,7 +9799,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5825,7 +9809,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5835,7 +9819,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5845,7 +9829,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5855,7 +9839,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5865,7 +9849,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5875,7 +9859,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5885,7 +9869,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5895,7 +9879,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5905,7 +9889,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5915,7 +9899,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5927,6 +9911,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5934,13 +9925,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5952,7 +9936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -5960,7 +9944,7 @@
       <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -5968,101 +9952,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6088,7 +10072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6106,7 +10090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -6124,7 +10108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6140,7 +10124,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -6158,7 +10142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -6178,7 +10162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -6198,7 +10182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
@@ -6218,7 +10202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -6238,7 +10222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -6258,7 +10242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -6278,7 +10262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
@@ -6298,7 +10282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -6318,7 +10302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
@@ -6336,7 +10320,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
@@ -6354,7 +10338,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -6374,7 +10358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -6394,69 +10378,69 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="46" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="55" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="268" customHeight="1">
+      <c r="A27" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A28" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -6482,7 +10466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -6500,7 +10484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
@@ -6518,7 +10502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -6534,7 +10518,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -6552,7 +10536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -6572,7 +10556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -6592,7 +10576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -6612,7 +10596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>48</v>
       </c>
@@ -6632,7 +10616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
         <v>51</v>
       </c>
@@ -6652,7 +10636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>53</v>
       </c>
@@ -6672,7 +10656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
@@ -6692,7 +10676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -6712,7 +10696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -6730,7 +10714,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>63</v>
       </c>
@@ -6748,7 +10732,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
@@ -6768,7 +10752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -6788,7 +10772,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="23" t="s">
         <v>90</v>
       </c>
@@ -6808,7 +10792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>87</v>
       </c>
@@ -6828,31 +10812,31 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26" t="s">
+    <row r="49" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A49" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="29" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8" ht="271" customHeight="1">
+      <c r="A50" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -6862,7 +10846,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -6872,7 +10856,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -6882,7 +10866,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -6892,7 +10876,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6902,7 +10886,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6912,7 +10896,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6922,7 +10906,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -6932,7 +10916,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -6942,7 +10926,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6952,7 +10936,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6962,7 +10946,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6972,7 +10956,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6982,7 +10966,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6992,7 +10976,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7002,7 +10986,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7012,7 +10996,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7022,7 +11006,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7032,7 +11016,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7042,7 +11026,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7052,7 +11036,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -7062,7 +11046,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -7072,7 +11056,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7082,7 +11066,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7092,7 +11076,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7102,7 +11086,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7112,7 +11096,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7122,7 +11106,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7132,7 +11116,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7142,7 +11126,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7152,7 +11136,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7162,7 +11146,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7198,7 +11182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -7206,7 +11190,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -7214,101 +11198,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +11318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7354,67 +11338,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="46" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -7440,7 +11424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7458,7 +11442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -7476,7 +11460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -7494,31 +11478,31 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="55" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1">
+      <c r="A20" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7528,7 +11512,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7538,7 +11522,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7548,7 +11532,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7558,7 +11542,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
@@ -7568,7 +11552,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7578,7 +11562,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7588,7 +11572,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="268" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7598,7 +11582,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7608,7 +11592,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7618,7 +11602,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -7628,7 +11612,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7638,27 +11622,27 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -7668,7 +11652,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -7678,7 +11662,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -7688,7 +11672,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7698,7 +11682,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7708,7 +11692,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7718,7 +11702,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -7728,7 +11712,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -7738,7 +11722,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -7748,7 +11732,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -7758,7 +11742,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -7768,7 +11752,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -7778,7 +11762,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -7788,7 +11772,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -7798,7 +11782,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -7808,7 +11792,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="271" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -7818,7 +11802,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7828,7 +11812,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -7838,7 +11822,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -7848,7 +11832,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -7858,7 +11842,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -7868,7 +11852,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -7878,7 +11862,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -7888,7 +11872,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -7898,7 +11882,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -7908,7 +11892,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7918,7 +11902,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7928,7 +11912,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -7938,7 +11922,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -7948,7 +11932,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -7958,7 +11942,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -7968,7 +11952,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -7978,7 +11962,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -7988,7 +11972,7 @@
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -7998,7 +11982,7 @@
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -8008,7 +11992,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -8018,7 +12002,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -8028,7 +12012,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -8038,7 +12022,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -8048,7 +12032,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -8058,7 +12042,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -8068,7 +12052,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -8078,7 +12062,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -8088,7 +12072,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -8098,7 +12082,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -8108,7 +12092,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -8118,7 +12102,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -8128,7 +12112,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -8138,7 +12122,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -8148,7 +12132,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -8158,7 +12142,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -8168,7 +12152,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -8178,7 +12162,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -8188,7 +12172,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -8198,7 +12182,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -8208,7 +12192,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -8218,7 +12202,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -8228,7 +12212,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -8238,7 +12222,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -8248,7 +12232,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -8260,6 +12244,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8269,13 +12260,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/University_API.xlsx
+++ b/api/Notice/University_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A31FC-9AA2-4016-B4D5-8B00B7FBBB4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C520EB10-28D1-4F1F-89F0-229AAD4878F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학교 공지 전체 조회" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="124">
   <si>
     <t>Title</t>
   </si>
@@ -570,107 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "campus": "COMMON",
-      "notice_id" : 1
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1860,6 +1759,245 @@
   </si>
   <si>
     <t>http://localhost:8080/notice/university/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "writer" : "tester",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "campus": "COMMON",
+      "notice_id" : 1
+   }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : [{
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "writer" : "tester",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "campus": "COMMON",
+      "notice_id" : 1
+   }],
+   "pagination" : {
+      "total_pages" : 10,
+      "total_elements" : 100,
+      "current_page" : 3,
+      "current_elements" : 10
+   }
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,7 +2283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,13 +2339,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2224,16 +2355,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2249,6 +2371,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2260,6 +2401,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2306,15 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2649,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:H41"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2665,95 +2815,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -2802,64 +2952,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2941,14 +3091,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>21</v>
@@ -2998,32 +3148,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -3031,84 +3181,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>51</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
+      <c r="A26" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>58</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>59</v>
+      <c r="A28" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -3118,35 +3268,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>61</v>
+      <c r="A29" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -3154,194 +3306,212 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="G35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A36" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="30" t="s">
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="31" t="s">
+      <c r="G38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="31" t="s">
+      <c r="G39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="31" t="s">
+      <c r="G40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="37" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="403" customHeight="1">
+      <c r="A41" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-    </row>
-    <row r="41" spans="1:8" ht="403" customHeight="1">
-      <c r="A41" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" ht="409.6">
+      <c r="A42" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -3834,15 +4004,13 @@
       <c r="H94" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
+  <mergeCells count="12">
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:H15"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -3863,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB280D8-022A-45A9-B6C5-304002F0A147}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -3879,95 +4047,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3996,198 +4164,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4212,32 +4380,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -4245,84 +4413,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>51</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
+      <c r="A26" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>58</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>59</v>
+      <c r="A28" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -4332,35 +4500,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>61</v>
+      <c r="A29" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -4368,194 +4538,212 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="28" t="s">
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="28" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="G35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30" t="s">
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="31" t="s">
+      <c r="G38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="31" t="s">
+      <c r="G39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="31" t="s">
+      <c r="G40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="37" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
+      <c r="A41" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-    </row>
-    <row r="41" spans="1:8" ht="403" customHeight="1">
-      <c r="A41" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A42" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -4608,84 +4796,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -4718,54 +4906,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -5049,7 +5237,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -5057,12 +5251,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5077,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C93941D-A0D7-4397-AE9F-2DF7EE2D4289}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -5093,95 +5281,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -5210,198 +5398,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5426,32 +5614,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -5459,84 +5647,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>51</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
+      <c r="A26" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>58</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>59</v>
+      <c r="A28" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -5546,35 +5734,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>61</v>
+      <c r="A29" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -5582,194 +5772,212 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="28" t="s">
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="28" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="G35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30" t="s">
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="31" t="s">
+      <c r="G38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="31" t="s">
+      <c r="G39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="31" t="s">
+      <c r="G40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="37" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
+      <c r="A41" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-    </row>
-    <row r="41" spans="1:8" ht="403" customHeight="1">
-      <c r="A41" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A42" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -5822,84 +6030,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -5932,54 +6140,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -6263,7 +6471,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -6271,12 +6485,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6291,8 +6499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D506AA-E615-440F-8F2B-B6DB318E3BDA}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -6307,95 +6515,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6424,198 +6632,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6640,32 +6848,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -6673,84 +6881,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>51</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
+      <c r="A26" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>58</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>59</v>
+      <c r="A28" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -6760,35 +6968,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>61</v>
+      <c r="A29" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -6796,194 +7006,212 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="28" t="s">
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="28" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="G35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="30" t="s">
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="31" t="s">
+      <c r="G38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="31" t="s">
+      <c r="G39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="31" t="s">
+      <c r="G40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="37" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
+      <c r="A41" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="39"/>
-    </row>
-    <row r="41" spans="1:8" ht="403" customHeight="1">
-      <c r="A41" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A42" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -7036,84 +7264,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -7146,54 +7374,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -7477,7 +7705,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -7485,12 +7719,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7505,8 +7733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -7521,95 +7749,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -7668,64 +7896,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="44"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -7864,32 +8092,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -7897,84 +8125,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>51</v>
+      <c r="A25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>53</v>
+      <c r="A26" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>54</v>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>56</v>
+      <c r="C27" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>58</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -7984,35 +8212,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>61</v>
+      <c r="A29" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -8020,108 +8250,126 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A35" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="G35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.5" customHeight="1">
-      <c r="A35" s="37" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="17" customHeight="1">
+      <c r="A36" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" ht="339" customHeight="1">
-      <c r="A36" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+    </row>
+    <row r="37" spans="1:8" ht="378.5" customHeight="1">
+      <c r="A37" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="17"/>
@@ -8665,7 +8913,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -8673,12 +8927,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8693,8 +8941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H27"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -8709,95 +8957,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -9113,11 +9361,11 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -9128,70 +9376,70 @@
         <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:8" ht="205" customHeight="1">
+      <c r="A27" s="62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" ht="205" customHeight="1">
-      <c r="A27" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
@@ -9330,32 +9578,32 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -9363,84 +9611,84 @@
         <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
-        <v>51</v>
+      <c r="A39" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9" t="s">
-        <v>53</v>
+      <c r="A40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>54</v>
+      <c r="C40" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="9" t="s">
+      <c r="F40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>56</v>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>58</v>
+      <c r="F41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>21</v>
@@ -9450,35 +9698,37 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>61</v>
+      <c r="A43" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>32</v>
@@ -9486,108 +9736,126 @@
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="G46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="18" t="s">
+      <c r="G47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="23" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23" t="s">
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="16" customHeight="1">
+      <c r="A49" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="G49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1">
-      <c r="A49" s="37" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1">
+      <c r="A50" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
-    </row>
-    <row r="50" spans="1:8" ht="360.5" customHeight="1">
-      <c r="A50" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
+    </row>
+    <row r="51" spans="1:8" ht="378.5" customHeight="1">
+      <c r="A51" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -9911,13 +10179,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="A51:H51"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -9925,6 +10187,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9940,8 +10208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -9956,95 +10224,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -10379,66 +10647,66 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:8" ht="268" customHeight="1">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A28" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.5" customHeight="1">
-      <c r="A28" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
@@ -10577,32 +10845,32 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -10610,84 +10878,84 @@
         <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
-        <v>51</v>
+      <c r="A39" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9" t="s">
-        <v>53</v>
+      <c r="A40" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
-        <v>54</v>
+      <c r="C40" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="9" t="s">
+      <c r="F40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
-        <v>56</v>
+      <c r="C41" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>58</v>
+      <c r="F41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>21</v>
@@ -10697,35 +10965,37 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
-        <v>61</v>
+      <c r="A43" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>32</v>
@@ -10733,108 +11003,126 @@
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="G46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="18" t="s">
+      <c r="G47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="23" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23" t="s">
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="20.5" customHeight="1">
+      <c r="A49" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="G49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.5" customHeight="1">
-      <c r="A49" s="37" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1">
+      <c r="A50" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
-    </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1">
-      <c r="A50" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
+    </row>
+    <row r="51" spans="1:8" ht="378.5" customHeight="1">
+      <c r="A51" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -11158,6 +11446,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A51:H51"/>
     <mergeCell ref="A50:H50"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
@@ -11166,7 +11455,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
@@ -11202,95 +11490,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -11339,64 +11627,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -11439,7 +11727,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -11457,7 +11745,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -11475,32 +11763,32 @@
         <v>32</v>
       </c>
       <c r="H18" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1">
+      <c r="A20" s="47" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13"/>
@@ -11623,24 +11911,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
